--- a/src/test/resources/testData/TestData/TestData.xlsx
+++ b/src/test/resources/testData/TestData/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11104" uniqueCount="1679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11109" uniqueCount="1684">
   <si>
     <t>Keyword</t>
   </si>
@@ -5063,13 +5063,28 @@
     <t>PPS_Hi_129077 ISSUE&amp;FRAUD Scenario - CallCenter FOP: Mix CreditCard + CreditCard  / POS: PTY</t>
   </si>
   <si>
-    <t>TestData1</t>
-  </si>
-  <si>
     <t>TestData2</t>
   </si>
   <si>
     <t>TestData3</t>
+  </si>
+  <si>
+    <t>Mobile_1</t>
+  </si>
+  <si>
+    <t>Mobile_Checking the Preferences</t>
+  </si>
+  <si>
+    <t>Preferences testing</t>
+  </si>
+  <si>
+    <t>checking the preference</t>
+  </si>
+  <si>
+    <t>WiFiName</t>
+  </si>
+  <si>
+    <t>Suman</t>
   </si>
 </sst>
 </file>
@@ -38825,10 +38840,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -38836,7 +38851,7 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
@@ -38857,16 +38872,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="33" t="s">
         <v>1678</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1678</v>
+      <c r="B2" s="33" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1683</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/TestData/TestData.xlsx
+++ b/src/test/resources/testData/TestData/TestData.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Cybersource" sheetId="26" r:id="rId11"/>
     <sheet name="readonly_RES" sheetId="36" r:id="rId12"/>
     <sheet name="Advance_Search" sheetId="35" r:id="rId13"/>
-    <sheet name="standaloneEmd" sheetId="17" r:id="rId14"/>
+    <sheet name="preferences" sheetId="17" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">login!$A$1:$M$50</definedName>

--- a/src/test/resources/testData/TestData/TestData.xlsx
+++ b/src/test/resources/testData/TestData/TestData.xlsx
@@ -38843,15 +38843,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
